--- a/rhla_analysis/rhla1_6_uniform_result/k4.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k4.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00361721918526716</v>
+        <v>0.003700327687396263</v>
       </c>
       <c r="B2" t="n">
-        <v>0.08061636494663377</v>
+        <v>0.08033481376233835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.16538789428815</v>
+        <v>0.1198234894772573</v>
       </c>
       <c r="D2" t="n">
-        <v>22.28683439338764</v>
+        <v>21.71018908297443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004239854170887929</v>
+        <v>0.00408875063371857</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08441864537002135</v>
+        <v>0.08350305603366268</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1760443307757886</v>
+        <v>0.1238968092328581</v>
       </c>
       <c r="D3" t="n">
-        <v>19.91074267357219</v>
+        <v>20.42263359008512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003419093009615687</v>
+        <v>0.003719786657613629</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08321162923896971</v>
+        <v>0.08302132665040404</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1611253196930946</v>
+        <v>0.1140529531568228</v>
       </c>
       <c r="D4" t="n">
-        <v>24.3373400504021</v>
+        <v>22.31884091537257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004021203743722626</v>
+        <v>0.003825528346882184</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08482641649333769</v>
+        <v>0.08457774378717073</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1722080136402387</v>
+        <v>0.1272912423625255</v>
       </c>
       <c r="D5" t="n">
-        <v>21.09478203529416</v>
+        <v>22.10877455818667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004050945836145506</v>
+        <v>0.003524432640226203</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07688663962763462</v>
+        <v>0.07730069160834337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.175618073316283</v>
+        <v>0.1279701289884589</v>
       </c>
       <c r="D6" t="n">
-        <v>18.97992289642475</v>
+        <v>21.93280436858685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.009306373645870622</v>
+        <v>0.009508265581904946</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07371398426336082</v>
+        <v>0.07412178032425251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.184995737425405</v>
+        <v>0.1269517990495587</v>
       </c>
       <c r="D7" t="n">
-        <v>7.920806435283072</v>
+        <v>7.795510094429071</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002878237632680301</v>
+        <v>0.003337784804649937</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0772449917513198</v>
+        <v>0.07767144604392485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1845694799658994</v>
+        <v>0.1228784792939579</v>
       </c>
       <c r="D8" t="n">
-        <v>26.8376005074282</v>
+        <v>23.27035761434325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003384271170421661</v>
+        <v>0.003584364977347418</v>
       </c>
       <c r="B9" t="n">
-        <v>0.08518844243925212</v>
+        <v>0.08547694568972618</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1777493606138107</v>
+        <v>0.120162932790224</v>
       </c>
       <c r="D9" t="n">
-        <v>25.17187250944732</v>
+        <v>23.84716574063357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002058570814300017</v>
+        <v>0.002388708803214633</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08806466067529327</v>
+        <v>0.08764368607317459</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1547314578005115</v>
+        <v>0.1018329938900204</v>
       </c>
       <c r="D10" t="n">
-        <v>42.77951482822231</v>
+        <v>36.69082056181443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004408545538387893</v>
+        <v>0.004525965968572233</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07653657250881975</v>
+        <v>0.07698340797300901</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1845694799658994</v>
+        <v>0.141887304820095</v>
       </c>
       <c r="D11" t="n">
-        <v>17.3609576769411</v>
+        <v>17.00927680578524</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k4.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k4.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.003700327687396263</v>
+        <v>0.003700327687396279</v>
       </c>
       <c r="B2" t="n">
         <v>0.08033481376233835</v>
@@ -466,12 +466,12 @@
         <v>0.1198234894772573</v>
       </c>
       <c r="D2" t="n">
-        <v>21.71018908297443</v>
+        <v>21.71018908297433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.00408875063371857</v>
+        <v>0.004088750633718564</v>
       </c>
       <c r="B3" t="n">
         <v>0.08350305603366268</v>
@@ -480,12 +480,12 @@
         <v>0.1238968092328581</v>
       </c>
       <c r="D3" t="n">
-        <v>20.42263359008512</v>
+        <v>20.42263359008514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003719786657613629</v>
+        <v>0.003719786657613642</v>
       </c>
       <c r="B4" t="n">
         <v>0.08302132665040404</v>
@@ -494,12 +494,12 @@
         <v>0.1140529531568228</v>
       </c>
       <c r="D4" t="n">
-        <v>22.31884091537257</v>
+        <v>22.31884091537249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003825528346882184</v>
+        <v>0.00382552834688219</v>
       </c>
       <c r="B5" t="n">
         <v>0.08457774378717073</v>
@@ -508,12 +508,12 @@
         <v>0.1272912423625255</v>
       </c>
       <c r="D5" t="n">
-        <v>22.10877455818667</v>
+        <v>22.10877455818663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.003524432640226203</v>
+        <v>0.003524432640226205</v>
       </c>
       <c r="B6" t="n">
         <v>0.07730069160834337</v>
@@ -522,26 +522,26 @@
         <v>0.1279701289884589</v>
       </c>
       <c r="D6" t="n">
-        <v>21.93280436858685</v>
+        <v>21.93280436858684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.009508265581904946</v>
+        <v>0.00950826558190492</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07412178032425251</v>
+        <v>0.0741217803242525</v>
       </c>
       <c r="C7" t="n">
         <v>0.1269517990495587</v>
       </c>
       <c r="D7" t="n">
-        <v>7.795510094429071</v>
+        <v>7.79551009442909</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.003337784804649937</v>
+        <v>0.003337784804649947</v>
       </c>
       <c r="B8" t="n">
         <v>0.07767144604392485</v>
@@ -550,12 +550,12 @@
         <v>0.1228784792939579</v>
       </c>
       <c r="D8" t="n">
-        <v>23.27035761434325</v>
+        <v>23.27035761434318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.003584364977347418</v>
+        <v>0.00358436497734741</v>
       </c>
       <c r="B9" t="n">
         <v>0.08547694568972618</v>
@@ -564,12 +564,12 @@
         <v>0.120162932790224</v>
       </c>
       <c r="D9" t="n">
-        <v>23.84716574063357</v>
+        <v>23.84716574063363</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002388708803214633</v>
+        <v>0.00238870880321463</v>
       </c>
       <c r="B10" t="n">
         <v>0.08764368607317459</v>
@@ -578,12 +578,12 @@
         <v>0.1018329938900204</v>
       </c>
       <c r="D10" t="n">
-        <v>36.69082056181443</v>
+        <v>36.69082056181448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004525965968572233</v>
+        <v>0.004525965968572191</v>
       </c>
       <c r="B11" t="n">
         <v>0.07698340797300901</v>
@@ -592,7 +592,7 @@
         <v>0.141887304820095</v>
       </c>
       <c r="D11" t="n">
-        <v>17.00927680578524</v>
+        <v>17.0092768057854</v>
       </c>
     </row>
   </sheetData>
